--- a/Experimental Projects/nfl_model/data/buf.xlsx
+++ b/Experimental Projects/nfl_model/data/buf.xlsx
@@ -14,84 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="260">
   <si>
     <t>Week</t>
   </si>
   <si>
+    <t>Day_Week</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Kickoff_Time</t>
+  </si>
+  <si>
+    <t>W/L</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>Home/Away</t>
+  </si>
+  <si>
+    <t>Opp</t>
+  </si>
+  <si>
+    <t>Team_Score</t>
+  </si>
+  <si>
+    <t>Oppo_score</t>
+  </si>
+  <si>
+    <t>1D_gained</t>
+  </si>
+  <si>
+    <t>Team_Total_Yards</t>
+  </si>
+  <si>
+    <t>Team_Pass_Yards</t>
+  </si>
+  <si>
+    <t>Team_Rush_Yards</t>
+  </si>
+  <si>
+    <t>team_turnover</t>
+  </si>
+  <si>
+    <t>1D_allowed</t>
+  </si>
+  <si>
+    <t>oppo_total_yards</t>
+  </si>
+  <si>
+    <t>oppo_pass_yards</t>
+  </si>
+  <si>
+    <t>oppo_rush_yards</t>
+  </si>
+  <si>
+    <t>oppo_turnover</t>
+  </si>
+  <si>
+    <t>offense_expected_points</t>
+  </si>
+  <si>
+    <t>defense_expected_points</t>
+  </si>
+  <si>
+    <t>sp_expected_points</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Kickoff_time</t>
-  </si>
-  <si>
-    <t>W/L</t>
-  </si>
-  <si>
-    <t>OT</t>
-  </si>
-  <si>
-    <t>Rec</t>
-  </si>
-  <si>
-    <t>Home/Away</t>
-  </si>
-  <si>
-    <t>Opp</t>
-  </si>
-  <si>
-    <t>Team_Score</t>
-  </si>
-  <si>
-    <t>Oppo_score</t>
-  </si>
-  <si>
-    <t>1D_gained</t>
-  </si>
-  <si>
-    <t>Team_Total_Yards</t>
-  </si>
-  <si>
-    <t>Team_Pass_Yards</t>
-  </si>
-  <si>
-    <t>Team_Rush_Yards</t>
-  </si>
-  <si>
-    <t>team_turnover</t>
-  </si>
-  <si>
-    <t>1D_allowed</t>
-  </si>
-  <si>
-    <t>oppo_total_yards</t>
-  </si>
-  <si>
-    <t>oppo_pass_yards</t>
-  </si>
-  <si>
-    <t>oppo_rush_yards</t>
-  </si>
-  <si>
-    <t>oppo_turnover</t>
-  </si>
-  <si>
-    <t>offense_expected_points</t>
-  </si>
-  <si>
-    <t>defense_expected_points</t>
-  </si>
-  <si>
-    <t>sp_expected_points</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>dt_date</t>
   </si>
   <si>
     <t>Sun</t>
@@ -466,13 +475,10 @@
     <t>4:35PM ET</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>nan</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>0-1</t>
@@ -794,6 +800,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -846,11 +855,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,13 +1155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA156"/>
+  <dimension ref="A1:AD156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,8 +1240,17 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1239,28 +1258,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
+        <v>131</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K2">
         <v>31</v>
@@ -1311,10 +1330,19 @@
         <v>2002</v>
       </c>
       <c r="AA2" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB2">
+        <v>9</v>
+      </c>
+      <c r="AC2">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>37507</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -1322,28 +1350,28 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K3">
         <v>24</v>
@@ -1394,10 +1422,19 @@
         <v>2002</v>
       </c>
       <c r="AA3" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>37556</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1405,28 +1442,28 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1477,10 +1514,19 @@
         <v>2002</v>
       </c>
       <c r="AA4" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB4">
+        <v>12</v>
+      </c>
+      <c r="AC4">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>37612</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -1488,28 +1534,28 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K5">
         <v>27</v>
@@ -1560,10 +1606,19 @@
         <v>2002</v>
       </c>
       <c r="AA5" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB5">
+        <v>12</v>
+      </c>
+      <c r="AC5">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>37619</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1571,28 +1626,28 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" t="s">
-        <v>151</v>
+        <v>131</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K6">
         <v>31</v>
@@ -1643,10 +1698,19 @@
         <v>2003</v>
       </c>
       <c r="AA6" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB6">
+        <v>9</v>
+      </c>
+      <c r="AC6">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>37871</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1654,28 +1718,28 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>150</v>
+        <v>133</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1726,10 +1790,19 @@
         <v>2003</v>
       </c>
       <c r="AA7" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB7">
+        <v>9</v>
+      </c>
+      <c r="AC7">
+        <v>21</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>37885</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1737,28 +1810,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K8">
         <v>24</v>
@@ -1809,10 +1882,19 @@
         <v>2003</v>
       </c>
       <c r="AA8" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>19</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>37913</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1820,28 +1902,28 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1892,10 +1974,19 @@
         <v>2003</v>
       </c>
       <c r="AA9" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB9">
+        <v>11</v>
+      </c>
+      <c r="AC9">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>37941</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1903,28 +1994,28 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K10">
         <v>14</v>
@@ -1975,10 +2066,19 @@
         <v>2003</v>
       </c>
       <c r="AA10" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB10">
+        <v>11</v>
+      </c>
+      <c r="AC10">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>37948</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -1986,28 +2086,28 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -2058,10 +2158,19 @@
         <v>2003</v>
       </c>
       <c r="AA11" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB11">
+        <v>12</v>
+      </c>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>37962</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -2069,28 +2178,28 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K12">
         <v>26</v>
@@ -2141,10 +2250,19 @@
         <v>2003</v>
       </c>
       <c r="AA12" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB12">
+        <v>12</v>
+      </c>
+      <c r="AC12">
+        <v>14</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>37969</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -2152,28 +2270,28 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -2224,10 +2342,19 @@
         <v>2003</v>
       </c>
       <c r="AA13" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB13">
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <v>21</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>37976</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -2235,28 +2362,28 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2307,10 +2434,19 @@
         <v>2003</v>
       </c>
       <c r="AA14" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB14">
+        <v>12</v>
+      </c>
+      <c r="AC14">
+        <v>27</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>37982</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -2318,28 +2454,28 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
+        <v>131</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -2390,10 +2526,19 @@
         <v>2004</v>
       </c>
       <c r="AA15" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB15">
+        <v>9</v>
+      </c>
+      <c r="AC15">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>38242</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -2401,28 +2546,28 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K16">
         <v>17</v>
@@ -2473,10 +2618,19 @@
         <v>2004</v>
       </c>
       <c r="AA16" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB16">
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>38263</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -2484,28 +2638,28 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" t="s">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17">
         <v>14</v>
@@ -2556,10 +2710,19 @@
         <v>2004</v>
       </c>
       <c r="AA17" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>38270</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -2567,28 +2730,28 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2639,10 +2802,19 @@
         <v>2004</v>
       </c>
       <c r="AA18" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <v>24</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>38284</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -2650,28 +2822,28 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" t="s">
-        <v>150</v>
+        <v>133</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2722,10 +2894,19 @@
         <v>2004</v>
       </c>
       <c r="AA19" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB19">
+        <v>11</v>
+      </c>
+      <c r="AC19">
+        <v>14</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>38305</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -2733,28 +2914,28 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20">
         <v>37</v>
@@ -2805,10 +2986,19 @@
         <v>2004</v>
       </c>
       <c r="AA20" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB20">
+        <v>11</v>
+      </c>
+      <c r="AC20">
+        <v>21</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>38312</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>11</v>
       </c>
@@ -2816,28 +3006,28 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" t="s">
-        <v>151</v>
+        <v>139</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K21">
         <v>38</v>
@@ -2888,10 +3078,19 @@
         <v>2004</v>
       </c>
       <c r="AA21" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB21">
+        <v>11</v>
+      </c>
+      <c r="AC21">
+        <v>28</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>38319</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>12</v>
       </c>
@@ -2899,28 +3098,28 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K22">
         <v>42</v>
@@ -2971,10 +3170,19 @@
         <v>2004</v>
       </c>
       <c r="AA22" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB22">
+        <v>12</v>
+      </c>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>38326</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>13</v>
       </c>
@@ -2982,28 +3190,28 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K23">
         <v>37</v>
@@ -3054,10 +3262,19 @@
         <v>2004</v>
       </c>
       <c r="AA23" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB23">
+        <v>12</v>
+      </c>
+      <c r="AC23">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>38333</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>14</v>
       </c>
@@ -3065,28 +3282,28 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K24">
         <v>33</v>
@@ -3137,10 +3354,19 @@
         <v>2004</v>
       </c>
       <c r="AA24" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB24">
+        <v>12</v>
+      </c>
+      <c r="AC24">
+        <v>19</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>38340</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>15</v>
       </c>
@@ -3148,28 +3374,28 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" t="s">
-        <v>151</v>
+        <v>138</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K25">
         <v>41</v>
@@ -3220,10 +3446,19 @@
         <v>2004</v>
       </c>
       <c r="AA25" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB25">
+        <v>12</v>
+      </c>
+      <c r="AC25">
+        <v>26</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>38347</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>16</v>
       </c>
@@ -3231,28 +3466,28 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K26">
         <v>24</v>
@@ -3303,10 +3538,19 @@
         <v>2004</v>
       </c>
       <c r="AA26" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>37988</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -3314,28 +3558,28 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K27">
         <v>16</v>
@@ -3386,10 +3630,19 @@
         <v>2005</v>
       </c>
       <c r="AA27" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB27">
+        <v>9</v>
+      </c>
+      <c r="AC27">
+        <v>25</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>38620</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -3397,28 +3650,28 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K28">
         <v>20</v>
@@ -3469,10 +3722,19 @@
         <v>2005</v>
       </c>
       <c r="AA28" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB28">
+        <v>10</v>
+      </c>
+      <c r="AC28">
+        <v>9</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>38634</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -3480,28 +3742,28 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K29">
         <v>27</v>
@@ -3552,10 +3814,19 @@
         <v>2005</v>
       </c>
       <c r="AA29" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB29">
+        <v>10</v>
+      </c>
+      <c r="AC29">
+        <v>16</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>38641</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -3563,28 +3834,28 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K30">
         <v>17</v>
@@ -3635,10 +3906,19 @@
         <v>2005</v>
       </c>
       <c r="AA30" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB30">
+        <v>10</v>
+      </c>
+      <c r="AC30">
+        <v>23</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>38648</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -3646,28 +3926,28 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K31">
         <v>16</v>
@@ -3718,10 +3998,19 @@
         <v>2005</v>
       </c>
       <c r="AA31" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB31">
+        <v>10</v>
+      </c>
+      <c r="AC31">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>38655</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -3729,28 +4018,28 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K32">
         <v>14</v>
@@ -3801,10 +4090,19 @@
         <v>2005</v>
       </c>
       <c r="AA32" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB32">
+        <v>11</v>
+      </c>
+      <c r="AC32">
+        <v>13</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>38669</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -3812,28 +4110,28 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -3884,10 +4182,19 @@
         <v>2005</v>
       </c>
       <c r="AA33" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB33">
+        <v>11</v>
+      </c>
+      <c r="AC33">
+        <v>27</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>38683</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -3895,28 +4202,28 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K34">
         <v>23</v>
@@ -3967,10 +4274,19 @@
         <v>2005</v>
       </c>
       <c r="AA34" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB34">
+        <v>12</v>
+      </c>
+      <c r="AC34">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>38690</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -3978,28 +4294,28 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K35">
         <v>7</v>
@@ -4050,10 +4366,19 @@
         <v>2005</v>
       </c>
       <c r="AA35" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB35">
+        <v>12</v>
+      </c>
+      <c r="AC35">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>38697</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>15</v>
       </c>
@@ -4061,28 +4386,28 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K36">
         <v>37</v>
@@ -4133,10 +4458,19 @@
         <v>2005</v>
       </c>
       <c r="AA36" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB36">
+        <v>12</v>
+      </c>
+      <c r="AC36">
+        <v>24</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>38710</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -4144,28 +4478,28 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K37">
         <v>7</v>
@@ -4216,10 +4550,19 @@
         <v>2006</v>
       </c>
       <c r="AA37" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB37">
+        <v>10</v>
+      </c>
+      <c r="AC37">
+        <v>8</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>38998</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -4227,28 +4570,28 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K38">
         <v>17</v>
@@ -4299,10 +4642,19 @@
         <v>2006</v>
       </c>
       <c r="AA38" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB38">
+        <v>10</v>
+      </c>
+      <c r="AC38">
+        <v>15</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>39005</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -4310,28 +4662,28 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J39" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K39">
         <v>24</v>
@@ -4382,10 +4734,19 @@
         <v>2006</v>
       </c>
       <c r="AA39" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB39">
+        <v>11</v>
+      </c>
+      <c r="AC39">
+        <v>19</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>39040</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>11</v>
       </c>
@@ -4393,28 +4754,28 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K40">
         <v>27</v>
@@ -4465,10 +4826,19 @@
         <v>2006</v>
       </c>
       <c r="AA40" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB40">
+        <v>11</v>
+      </c>
+      <c r="AC40">
+        <v>26</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>39047</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -4476,28 +4846,28 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J41" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K41">
         <v>21</v>
@@ -4548,10 +4918,19 @@
         <v>2006</v>
       </c>
       <c r="AA41" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB41">
+        <v>12</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>39054</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>13</v>
       </c>
@@ -4559,28 +4938,28 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K42">
         <v>31</v>
@@ -4631,10 +5010,19 @@
         <v>2006</v>
       </c>
       <c r="AA42" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB42">
+        <v>12</v>
+      </c>
+      <c r="AC42">
+        <v>10</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>39061</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -4642,28 +5030,28 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K43">
         <v>21</v>
@@ -4714,10 +5102,19 @@
         <v>2006</v>
       </c>
       <c r="AA43" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB43">
+        <v>12</v>
+      </c>
+      <c r="AC43">
+        <v>17</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>39068</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>16</v>
       </c>
@@ -4725,28 +5122,28 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4797,10 +5194,19 @@
         <v>2006</v>
       </c>
       <c r="AA44" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB44">
+        <v>12</v>
+      </c>
+      <c r="AC44">
+        <v>31</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>39082</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -4808,28 +5214,28 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K45">
         <v>14</v>
@@ -4880,10 +5286,19 @@
         <v>2007</v>
       </c>
       <c r="AA45" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB45">
+        <v>9</v>
+      </c>
+      <c r="AC45">
+        <v>9</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>39334</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -4891,28 +5306,28 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J46" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K46">
         <v>7</v>
@@ -4963,10 +5378,19 @@
         <v>2007</v>
       </c>
       <c r="AA46" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB46">
+        <v>9</v>
+      </c>
+      <c r="AC46">
+        <v>23</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>39348</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -4974,28 +5398,28 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H47" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K47">
         <v>17</v>
@@ -5046,10 +5470,19 @@
         <v>2007</v>
       </c>
       <c r="AA47" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB47">
+        <v>9</v>
+      </c>
+      <c r="AC47">
+        <v>30</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>39355</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -5057,28 +5490,28 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K48">
         <v>24</v>
@@ -5129,10 +5562,19 @@
         <v>2007</v>
       </c>
       <c r="AA48" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB48">
+        <v>10</v>
+      </c>
+      <c r="AC48">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>39363</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>6</v>
       </c>
@@ -5140,28 +5582,28 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H49" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J49" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K49">
         <v>19</v>
@@ -5212,10 +5654,19 @@
         <v>2007</v>
       </c>
       <c r="AA49" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB49">
+        <v>10</v>
+      </c>
+      <c r="AC49">
+        <v>21</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>39376</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>7</v>
       </c>
@@ -5223,28 +5674,28 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K50">
         <v>13</v>
@@ -5295,10 +5746,19 @@
         <v>2007</v>
       </c>
       <c r="AA50" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB50">
+        <v>10</v>
+      </c>
+      <c r="AC50">
+        <v>28</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>39383</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>8</v>
       </c>
@@ -5306,28 +5766,28 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I51" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K51">
         <v>33</v>
@@ -5378,10 +5838,19 @@
         <v>2007</v>
       </c>
       <c r="AA51" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB51">
+        <v>11</v>
+      </c>
+      <c r="AC51">
+        <v>4</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>39390</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>11</v>
       </c>
@@ -5389,28 +5858,28 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J52" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K52">
         <v>14</v>
@@ -5461,10 +5930,19 @@
         <v>2007</v>
       </c>
       <c r="AA52" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB52">
+        <v>11</v>
+      </c>
+      <c r="AC52">
+        <v>25</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>39411</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>12</v>
       </c>
@@ -5472,28 +5950,28 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I53" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K53">
         <v>17</v>
@@ -5544,10 +6022,19 @@
         <v>2007</v>
       </c>
       <c r="AA53" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB53">
+        <v>12</v>
+      </c>
+      <c r="AC53">
+        <v>2</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>39418</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>13</v>
       </c>
@@ -5555,28 +6042,28 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K54">
         <v>38</v>
@@ -5627,10 +6114,19 @@
         <v>2007</v>
       </c>
       <c r="AA54" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB54">
+        <v>12</v>
+      </c>
+      <c r="AC54">
+        <v>9</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>39425</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>15</v>
       </c>
@@ -5638,28 +6134,28 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I55" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K55">
         <v>21</v>
@@ -5710,10 +6206,19 @@
         <v>2007</v>
       </c>
       <c r="AA55" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB55">
+        <v>12</v>
+      </c>
+      <c r="AC55">
+        <v>23</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>39439</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -5721,28 +6226,28 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K56">
         <v>20</v>
@@ -5793,10 +6298,19 @@
         <v>2008</v>
       </c>
       <c r="AA56" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB56">
+        <v>9</v>
+      </c>
+      <c r="AC56">
+        <v>14</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>39705</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -5804,28 +6318,28 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I57" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J57" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K57">
         <v>24</v>
@@ -5876,10 +6390,19 @@
         <v>2008</v>
       </c>
       <c r="AA57" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB57">
+        <v>9</v>
+      </c>
+      <c r="AC57">
+        <v>21</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>39712</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -5887,28 +6410,28 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I58" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J58" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K58">
         <v>31</v>
@@ -5959,10 +6482,19 @@
         <v>2008</v>
       </c>
       <c r="AA58" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB58">
+        <v>9</v>
+      </c>
+      <c r="AC58">
+        <v>28</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>39719</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>7</v>
       </c>
@@ -5970,28 +6502,28 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K59">
         <v>16</v>
@@ -6042,10 +6574,19 @@
         <v>2008</v>
       </c>
       <c r="AA59" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB59">
+        <v>10</v>
+      </c>
+      <c r="AC59">
+        <v>26</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>39747</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>8</v>
       </c>
@@ -6053,28 +6594,28 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K60">
         <v>17</v>
@@ -6125,10 +6666,19 @@
         <v>2008</v>
       </c>
       <c r="AA60" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB60">
+        <v>11</v>
+      </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>39754</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>9</v>
       </c>
@@ -6136,28 +6686,28 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K61">
         <v>10</v>
@@ -6208,10 +6758,19 @@
         <v>2008</v>
       </c>
       <c r="AA61" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB61">
+        <v>11</v>
+      </c>
+      <c r="AC61">
+        <v>9</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>39761</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>12</v>
       </c>
@@ -6219,28 +6778,28 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J62" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6291,10 +6850,19 @@
         <v>2008</v>
       </c>
       <c r="AA62" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB62">
+        <v>11</v>
+      </c>
+      <c r="AC62">
+        <v>30</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>39782</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>14</v>
       </c>
@@ -6302,28 +6870,28 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K63">
         <v>27</v>
@@ -6374,10 +6942,19 @@
         <v>2008</v>
       </c>
       <c r="AA63" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB63">
+        <v>12</v>
+      </c>
+      <c r="AC63">
+        <v>14</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>39796</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -6385,28 +6962,28 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
-      </c>
-      <c r="F64" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H64" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J64" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K64">
         <v>24</v>
@@ -6457,10 +7034,19 @@
         <v>2009</v>
       </c>
       <c r="AA64" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB64">
+        <v>9</v>
+      </c>
+      <c r="AC64">
+        <v>14</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>40070</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -6468,28 +7054,28 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J65" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K65">
         <v>33</v>
@@ -6540,10 +7126,19 @@
         <v>2009</v>
       </c>
       <c r="AA65" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB65">
+        <v>9</v>
+      </c>
+      <c r="AC65">
+        <v>20</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>40076</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -6551,28 +7146,28 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I66" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J66" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K66">
         <v>7</v>
@@ -6623,10 +7218,19 @@
         <v>2009</v>
       </c>
       <c r="AA66" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB66">
+        <v>9</v>
+      </c>
+      <c r="AC66">
+        <v>27</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>40083</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:30">
       <c r="A67" s="1">
         <v>4</v>
       </c>
@@ -6634,28 +7238,28 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6706,10 +7310,19 @@
         <v>2009</v>
       </c>
       <c r="AA67" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB67">
+        <v>10</v>
+      </c>
+      <c r="AC67">
+        <v>11</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>40097</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:30">
       <c r="A68" s="1">
         <v>5</v>
       </c>
@@ -6717,28 +7330,28 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I68" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K68">
         <v>16</v>
@@ -6789,10 +7402,19 @@
         <v>2009</v>
       </c>
       <c r="AA68" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB68">
+        <v>10</v>
+      </c>
+      <c r="AC68">
+        <v>18</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>40104</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:30">
       <c r="A69" s="1">
         <v>7</v>
       </c>
@@ -6800,28 +7422,28 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K69">
         <v>10</v>
@@ -6872,10 +7494,19 @@
         <v>2009</v>
       </c>
       <c r="AA69" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB69">
+        <v>11</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>40118</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:30">
       <c r="A70" s="1">
         <v>9</v>
       </c>
@@ -6883,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K70">
         <v>17</v>
@@ -6955,10 +7586,19 @@
         <v>2009</v>
       </c>
       <c r="AA70" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB70">
+        <v>11</v>
+      </c>
+      <c r="AC70">
+        <v>15</v>
+      </c>
+      <c r="AD70" s="2">
+        <v>40132</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:30">
       <c r="A71" s="1">
         <v>10</v>
       </c>
@@ -6966,28 +7606,28 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J71" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K71">
         <v>15</v>
@@ -7038,10 +7678,19 @@
         <v>2009</v>
       </c>
       <c r="AA71" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB71">
+        <v>11</v>
+      </c>
+      <c r="AC71">
+        <v>22</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>40139</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:30">
       <c r="A72" s="1">
         <v>11</v>
       </c>
@@ -7049,28 +7698,28 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H72" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K72">
         <v>31</v>
@@ -7121,10 +7770,19 @@
         <v>2009</v>
       </c>
       <c r="AA72" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB72">
+        <v>11</v>
+      </c>
+      <c r="AC72">
+        <v>29</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>40146</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:30">
       <c r="A73" s="1">
         <v>13</v>
       </c>
@@ -7132,28 +7790,28 @@
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F73" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H73" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K73">
         <v>16</v>
@@ -7204,10 +7862,19 @@
         <v>2009</v>
       </c>
       <c r="AA73" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB73">
+        <v>12</v>
+      </c>
+      <c r="AC73">
+        <v>13</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>40160</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:30">
       <c r="A74" s="1">
         <v>14</v>
       </c>
@@ -7215,28 +7882,28 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
-      </c>
-      <c r="F74" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J74" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -7287,10 +7954,19 @@
         <v>2009</v>
       </c>
       <c r="AA74" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB74">
+        <v>12</v>
+      </c>
+      <c r="AC74">
+        <v>20</v>
+      </c>
+      <c r="AD74" s="2">
+        <v>40167</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:30">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -7298,28 +7974,28 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H75" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K75">
         <v>30</v>
@@ -7370,10 +8046,19 @@
         <v>2010</v>
       </c>
       <c r="AA75" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB75">
+        <v>9</v>
+      </c>
+      <c r="AC75">
+        <v>26</v>
+      </c>
+      <c r="AD75" s="2">
+        <v>40447</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:30">
       <c r="A76" s="1">
         <v>6</v>
       </c>
@@ -7381,28 +8066,28 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K76">
         <v>34</v>
@@ -7453,10 +8138,19 @@
         <v>2010</v>
       </c>
       <c r="AA76" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB76">
+        <v>10</v>
+      </c>
+      <c r="AC76">
+        <v>24</v>
+      </c>
+      <c r="AD76" s="2">
+        <v>40475</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:30">
       <c r="A77" s="1">
         <v>8</v>
       </c>
@@ -7464,28 +8158,28 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I77" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K77">
         <v>19</v>
@@ -7536,10 +8230,19 @@
         <v>2010</v>
       </c>
       <c r="AA77" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB77">
+        <v>11</v>
+      </c>
+      <c r="AC77">
+        <v>7</v>
+      </c>
+      <c r="AD77" s="2">
+        <v>40489</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:30">
       <c r="A78" s="1">
         <v>9</v>
       </c>
@@ -7547,28 +8250,28 @@
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
-      </c>
-      <c r="F78" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H78" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J78" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K78">
         <v>14</v>
@@ -7619,10 +8322,19 @@
         <v>2010</v>
       </c>
       <c r="AA78" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB78">
+        <v>11</v>
+      </c>
+      <c r="AC78">
+        <v>14</v>
+      </c>
+      <c r="AD78" s="2">
+        <v>40496</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:30">
       <c r="A79" s="1">
         <v>10</v>
       </c>
@@ -7630,28 +8342,28 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H79" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I79" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K79">
         <v>49</v>
@@ -7702,10 +8414,19 @@
         <v>2010</v>
       </c>
       <c r="AA79" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB79">
+        <v>11</v>
+      </c>
+      <c r="AC79">
+        <v>21</v>
+      </c>
+      <c r="AD79" s="2">
+        <v>40503</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:30">
       <c r="A80" s="1">
         <v>11</v>
       </c>
@@ -7713,28 +8434,28 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>129</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K80">
         <v>16</v>
@@ -7785,10 +8506,19 @@
         <v>2010</v>
       </c>
       <c r="AA80" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB80">
+        <v>11</v>
+      </c>
+      <c r="AC80">
+        <v>28</v>
+      </c>
+      <c r="AD80" s="2">
+        <v>40510</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:30">
       <c r="A81" s="1">
         <v>12</v>
       </c>
@@ -7796,28 +8526,28 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H81" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J81" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K81">
         <v>14</v>
@@ -7868,10 +8598,19 @@
         <v>2010</v>
       </c>
       <c r="AA81" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB81">
+        <v>12</v>
+      </c>
+      <c r="AC81">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>40517</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:30">
       <c r="A82" s="1">
         <v>13</v>
       </c>
@@ -7879,28 +8618,28 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K82">
         <v>13</v>
@@ -7951,10 +8690,19 @@
         <v>2010</v>
       </c>
       <c r="AA82" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB82">
+        <v>12</v>
+      </c>
+      <c r="AC82">
+        <v>12</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>40524</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:30">
       <c r="A83" s="1">
         <v>14</v>
       </c>
@@ -7962,28 +8710,28 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E83" t="s">
-        <v>129</v>
-      </c>
-      <c r="F83" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J83" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K83">
         <v>17</v>
@@ -8034,10 +8782,19 @@
         <v>2010</v>
       </c>
       <c r="AA83" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB83">
+        <v>12</v>
+      </c>
+      <c r="AC83">
+        <v>19</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>40531</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:30">
       <c r="A84" s="1">
         <v>16</v>
       </c>
@@ -8045,28 +8802,28 @@
         <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
-      </c>
-      <c r="F84" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J84" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K84">
         <v>7</v>
@@ -8117,10 +8874,19 @@
         <v>2010</v>
       </c>
       <c r="AA84" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
+        <v>2</v>
+      </c>
+      <c r="AD84" s="2">
+        <v>40180</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:30">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -8128,28 +8894,28 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
-      </c>
-      <c r="F85" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H85" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K85">
         <v>41</v>
@@ -8200,10 +8966,19 @@
         <v>2011</v>
       </c>
       <c r="AA85" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB85">
+        <v>9</v>
+      </c>
+      <c r="AC85">
+        <v>11</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>40797</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:30">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -8211,28 +8986,28 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
-      </c>
-      <c r="F86" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H86" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I86" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J86" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K86">
         <v>38</v>
@@ -8283,10 +9058,19 @@
         <v>2011</v>
       </c>
       <c r="AA86" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB86">
+        <v>9</v>
+      </c>
+      <c r="AC86">
+        <v>18</v>
+      </c>
+      <c r="AD86" s="2">
+        <v>40804</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:30">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -8294,28 +9078,28 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
-      </c>
-      <c r="F87" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H87" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K87">
         <v>34</v>
@@ -8366,10 +9150,19 @@
         <v>2011</v>
       </c>
       <c r="AA87" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB87">
+        <v>9</v>
+      </c>
+      <c r="AC87">
+        <v>25</v>
+      </c>
+      <c r="AD87" s="2">
+        <v>40811</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:30">
       <c r="A88" s="1">
         <v>4</v>
       </c>
@@ -8377,28 +9170,28 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E88" t="s">
-        <v>128</v>
-      </c>
-      <c r="F88" t="s">
-        <v>151</v>
+        <v>131</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H88" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J88" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K88">
         <v>31</v>
@@ -8449,10 +9242,19 @@
         <v>2011</v>
       </c>
       <c r="AA88" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB88">
+        <v>10</v>
+      </c>
+      <c r="AC88">
+        <v>9</v>
+      </c>
+      <c r="AD88" s="2">
+        <v>40825</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:30">
       <c r="A89" s="1">
         <v>7</v>
       </c>
@@ -8460,28 +9262,28 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H89" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I89" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J89" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K89">
         <v>23</v>
@@ -8532,10 +9334,19 @@
         <v>2011</v>
       </c>
       <c r="AA89" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB89">
+        <v>10</v>
+      </c>
+      <c r="AC89">
+        <v>30</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>40846</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:30">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -8543,28 +9354,28 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
-      </c>
-      <c r="F90" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H90" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K90">
         <v>11</v>
@@ -8615,10 +9426,19 @@
         <v>2011</v>
       </c>
       <c r="AA90" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB90">
+        <v>11</v>
+      </c>
+      <c r="AC90">
+        <v>6</v>
+      </c>
+      <c r="AD90" s="2">
+        <v>40853</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:30">
       <c r="A91" s="1">
         <v>13</v>
       </c>
@@ -8626,28 +9446,28 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F91" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H91" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I91" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J91" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K91">
         <v>10</v>
@@ -8698,10 +9518,19 @@
         <v>2011</v>
       </c>
       <c r="AA91" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB91">
+        <v>12</v>
+      </c>
+      <c r="AC91">
+        <v>11</v>
+      </c>
+      <c r="AD91" s="2">
+        <v>40888</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:30">
       <c r="A92" s="1">
         <v>14</v>
       </c>
@@ -8709,28 +9538,28 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>129</v>
-      </c>
-      <c r="F92" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H92" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I92" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J92" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K92">
         <v>23</v>
@@ -8781,10 +9610,19 @@
         <v>2011</v>
       </c>
       <c r="AA92" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB92">
+        <v>12</v>
+      </c>
+      <c r="AC92">
+        <v>18</v>
+      </c>
+      <c r="AD92" s="2">
+        <v>40895</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:30">
       <c r="A93" s="1">
         <v>16</v>
       </c>
@@ -8792,28 +9630,28 @@
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>129</v>
-      </c>
-      <c r="F93" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H93" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K93">
         <v>21</v>
@@ -8864,10 +9702,19 @@
         <v>2011</v>
       </c>
       <c r="AA93" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB93">
+        <v>1</v>
+      </c>
+      <c r="AC93">
+        <v>1</v>
+      </c>
+      <c r="AD93" s="2">
+        <v>40544</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:30">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -8875,28 +9722,28 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
-      </c>
-      <c r="F94" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H94" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I94" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J94" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K94">
         <v>28</v>
@@ -8947,10 +9794,19 @@
         <v>2012</v>
       </c>
       <c r="AA94" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB94">
+        <v>9</v>
+      </c>
+      <c r="AC94">
+        <v>9</v>
+      </c>
+      <c r="AD94" s="2">
+        <v>41161</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:30">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -8958,28 +9814,28 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E95" t="s">
-        <v>129</v>
-      </c>
-      <c r="F95" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H95" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I95" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K95">
         <v>24</v>
@@ -9030,10 +9886,19 @@
         <v>2012</v>
       </c>
       <c r="AA95" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB95">
+        <v>9</v>
+      </c>
+      <c r="AC95">
+        <v>23</v>
+      </c>
+      <c r="AD95" s="2">
+        <v>41175</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:30">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -9041,28 +9906,28 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E96" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K96">
         <v>28</v>
@@ -9113,10 +9978,19 @@
         <v>2012</v>
       </c>
       <c r="AA96" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB96">
+        <v>9</v>
+      </c>
+      <c r="AC96">
+        <v>30</v>
+      </c>
+      <c r="AD96" s="2">
+        <v>41182</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:30">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -9124,28 +9998,28 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E97" t="s">
-        <v>144</v>
-      </c>
-      <c r="F97" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H97" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I97" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J97" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -9196,10 +10070,19 @@
         <v>2012</v>
       </c>
       <c r="AA97" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB97">
+        <v>10</v>
+      </c>
+      <c r="AC97">
+        <v>7</v>
+      </c>
+      <c r="AD97" s="2">
+        <v>41189</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:30">
       <c r="A98" s="1">
         <v>5</v>
       </c>
@@ -9207,28 +10090,28 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J98" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K98">
         <v>19</v>
@@ -9279,10 +10162,19 @@
         <v>2012</v>
       </c>
       <c r="AA98" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB98">
+        <v>10</v>
+      </c>
+      <c r="AC98">
+        <v>14</v>
+      </c>
+      <c r="AD98" s="2">
+        <v>41196</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:30">
       <c r="A99" s="1">
         <v>11</v>
       </c>
@@ -9290,28 +10182,28 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
-      </c>
-      <c r="F99" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H99" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I99" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J99" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K99">
         <v>13</v>
@@ -9362,10 +10254,19 @@
         <v>2012</v>
       </c>
       <c r="AA99" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB99">
+        <v>11</v>
+      </c>
+      <c r="AC99">
+        <v>25</v>
+      </c>
+      <c r="AD99" s="2">
+        <v>41238</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:30">
       <c r="A100" s="1">
         <v>12</v>
       </c>
@@ -9373,28 +10274,28 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E100" t="s">
-        <v>129</v>
-      </c>
-      <c r="F100" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H100" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I100" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K100">
         <v>34</v>
@@ -9445,10 +10346,19 @@
         <v>2012</v>
       </c>
       <c r="AA100" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB100">
+        <v>12</v>
+      </c>
+      <c r="AC100">
+        <v>2</v>
+      </c>
+      <c r="AD100" s="2">
+        <v>41245</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:30">
       <c r="A101" s="1">
         <v>13</v>
       </c>
@@ -9456,28 +10366,28 @@
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E101" t="s">
-        <v>129</v>
-      </c>
-      <c r="F101" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H101" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I101" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K101">
         <v>12</v>
@@ -9528,10 +10438,19 @@
         <v>2012</v>
       </c>
       <c r="AA101" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB101">
+        <v>12</v>
+      </c>
+      <c r="AC101">
+        <v>9</v>
+      </c>
+      <c r="AD101" s="2">
+        <v>41252</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:30">
       <c r="A102" s="1">
         <v>16</v>
       </c>
@@ -9539,28 +10458,28 @@
         <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E102" t="s">
-        <v>129</v>
-      </c>
-      <c r="F102" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H102" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J102" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K102">
         <v>28</v>
@@ -9611,10 +10530,19 @@
         <v>2012</v>
       </c>
       <c r="AA102" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB102">
+        <v>12</v>
+      </c>
+      <c r="AC102">
+        <v>30</v>
+      </c>
+      <c r="AD102" s="2">
+        <v>41273</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:30">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -9622,28 +10550,28 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E103" t="s">
-        <v>129</v>
-      </c>
-      <c r="F103" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H103" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I103" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J103" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K103">
         <v>21</v>
@@ -9694,10 +10622,19 @@
         <v>2013</v>
       </c>
       <c r="AA103" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB103">
+        <v>9</v>
+      </c>
+      <c r="AC103">
+        <v>8</v>
+      </c>
+      <c r="AD103" s="2">
+        <v>41525</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:30">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -9705,28 +10642,28 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E104" t="s">
-        <v>129</v>
-      </c>
-      <c r="F104" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H104" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I104" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J104" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K104">
         <v>24</v>
@@ -9777,10 +10714,19 @@
         <v>2013</v>
       </c>
       <c r="AA104" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB104">
+        <v>9</v>
+      </c>
+      <c r="AC104">
+        <v>15</v>
+      </c>
+      <c r="AD104" s="2">
+        <v>41532</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:30">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -9788,28 +10734,28 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E105" t="s">
-        <v>129</v>
-      </c>
-      <c r="F105" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H105" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I105" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J105" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K105">
         <v>23</v>
@@ -9860,10 +10806,19 @@
         <v>2013</v>
       </c>
       <c r="AA105" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB105">
+        <v>9</v>
+      </c>
+      <c r="AC105">
+        <v>29</v>
+      </c>
+      <c r="AD105" s="2">
+        <v>41546</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:30">
       <c r="A106" s="1">
         <v>5</v>
       </c>
@@ -9871,28 +10826,28 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E106" t="s">
-        <v>129</v>
-      </c>
-      <c r="F106" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I106" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J106" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K106">
         <v>24</v>
@@ -9943,10 +10898,19 @@
         <v>2013</v>
       </c>
       <c r="AA106" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB106">
+        <v>10</v>
+      </c>
+      <c r="AC106">
+        <v>13</v>
+      </c>
+      <c r="AD106" s="2">
+        <v>41560</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:30">
       <c r="A107" s="1">
         <v>6</v>
       </c>
@@ -9954,28 +10918,28 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E107" t="s">
-        <v>129</v>
-      </c>
-      <c r="F107" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H107" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I107" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J107" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K107">
         <v>23</v>
@@ -10026,10 +10990,19 @@
         <v>2013</v>
       </c>
       <c r="AA107" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB107">
+        <v>10</v>
+      </c>
+      <c r="AC107">
+        <v>20</v>
+      </c>
+      <c r="AD107" s="2">
+        <v>41567</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:30">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -10037,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E108" t="s">
-        <v>129</v>
-      </c>
-      <c r="F108" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H108" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J108" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K108">
         <v>10</v>
@@ -10109,10 +11082,19 @@
         <v>2013</v>
       </c>
       <c r="AA108" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB108">
+        <v>11</v>
+      </c>
+      <c r="AC108">
+        <v>10</v>
+      </c>
+      <c r="AD108" s="2">
+        <v>41588</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:30">
       <c r="A109" s="1">
         <v>12</v>
       </c>
@@ -10120,28 +11102,28 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F109" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I109" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J109" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K109">
         <v>31</v>
@@ -10192,10 +11174,19 @@
         <v>2013</v>
       </c>
       <c r="AA109" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB109">
+        <v>12</v>
+      </c>
+      <c r="AC109">
+        <v>1</v>
+      </c>
+      <c r="AD109" s="2">
+        <v>41609</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:30">
       <c r="A110" s="1">
         <v>13</v>
       </c>
@@ -10203,28 +11194,28 @@
         <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E110" t="s">
-        <v>129</v>
-      </c>
-      <c r="F110" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H110" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I110" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J110" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10275,10 +11266,19 @@
         <v>2013</v>
       </c>
       <c r="AA110" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB110">
+        <v>12</v>
+      </c>
+      <c r="AC110">
+        <v>8</v>
+      </c>
+      <c r="AD110" s="2">
+        <v>41616</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:30">
       <c r="A111" s="1">
         <v>14</v>
       </c>
@@ -10286,28 +11286,28 @@
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E111" t="s">
-        <v>129</v>
-      </c>
-      <c r="F111" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H111" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I111" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K111">
         <v>27</v>
@@ -10358,10 +11358,19 @@
         <v>2013</v>
       </c>
       <c r="AA111" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB111">
+        <v>12</v>
+      </c>
+      <c r="AC111">
+        <v>15</v>
+      </c>
+      <c r="AD111" s="2">
+        <v>41623</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:30">
       <c r="A112" s="1">
         <v>15</v>
       </c>
@@ -10369,28 +11378,28 @@
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E112" t="s">
-        <v>129</v>
-      </c>
-      <c r="F112" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H112" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I112" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J112" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K112">
         <v>19</v>
@@ -10441,10 +11450,19 @@
         <v>2013</v>
       </c>
       <c r="AA112" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB112">
+        <v>12</v>
+      </c>
+      <c r="AC112">
+        <v>22</v>
+      </c>
+      <c r="AD112" s="2">
+        <v>41630</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:30">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -10452,28 +11470,28 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E113" t="s">
-        <v>142</v>
-      </c>
-      <c r="F113" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K113">
         <v>23</v>
@@ -10524,10 +11542,19 @@
         <v>2014</v>
       </c>
       <c r="AA113" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB113">
+        <v>9</v>
+      </c>
+      <c r="AC113">
+        <v>7</v>
+      </c>
+      <c r="AD113" s="2">
+        <v>41889</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:30">
       <c r="A114" s="1">
         <v>3</v>
       </c>
@@ -10535,28 +11562,28 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E114" t="s">
-        <v>129</v>
-      </c>
-      <c r="F114" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I114" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J114" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K114">
         <v>17</v>
@@ -10607,10 +11634,19 @@
         <v>2014</v>
       </c>
       <c r="AA114" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB114">
+        <v>9</v>
+      </c>
+      <c r="AC114">
+        <v>28</v>
+      </c>
+      <c r="AD114" s="2">
+        <v>41910</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:30">
       <c r="A115" s="1">
         <v>4</v>
       </c>
@@ -10618,28 +11654,28 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
-      </c>
-      <c r="F115" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H115" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I115" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J115" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K115">
         <v>17</v>
@@ -10690,10 +11726,19 @@
         <v>2014</v>
       </c>
       <c r="AA115" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB115">
+        <v>10</v>
+      </c>
+      <c r="AC115">
+        <v>5</v>
+      </c>
+      <c r="AD115" s="2">
+        <v>41917</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:30">
       <c r="A116" s="1">
         <v>6</v>
       </c>
@@ -10701,28 +11746,28 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H116" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I116" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J116" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K116">
         <v>17</v>
@@ -10773,10 +11818,19 @@
         <v>2014</v>
       </c>
       <c r="AA116" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB116">
+        <v>10</v>
+      </c>
+      <c r="AC116">
+        <v>19</v>
+      </c>
+      <c r="AD116" s="2">
+        <v>41931</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:30">
       <c r="A117" s="1">
         <v>9</v>
       </c>
@@ -10784,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E117" t="s">
-        <v>129</v>
-      </c>
-      <c r="F117" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H117" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I117" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J117" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K117">
         <v>13</v>
@@ -10856,10 +11910,19 @@
         <v>2014</v>
       </c>
       <c r="AA117" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB117">
+        <v>11</v>
+      </c>
+      <c r="AC117">
+        <v>9</v>
+      </c>
+      <c r="AD117" s="2">
+        <v>41952</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:30">
       <c r="A118" s="1">
         <v>12</v>
       </c>
@@ -10867,28 +11930,28 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E118" t="s">
-        <v>129</v>
-      </c>
-      <c r="F118" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H118" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I118" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J118" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K118">
         <v>26</v>
@@ -10939,10 +12002,19 @@
         <v>2014</v>
       </c>
       <c r="AA118" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB118">
+        <v>11</v>
+      </c>
+      <c r="AC118">
+        <v>30</v>
+      </c>
+      <c r="AD118" s="2">
+        <v>41973</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:30">
       <c r="A119" s="1">
         <v>13</v>
       </c>
@@ -10950,28 +12022,28 @@
         <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E119" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H119" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I119" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J119" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K119">
         <v>17</v>
@@ -11022,10 +12094,19 @@
         <v>2014</v>
       </c>
       <c r="AA119" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB119">
+        <v>12</v>
+      </c>
+      <c r="AC119">
+        <v>7</v>
+      </c>
+      <c r="AD119" s="2">
+        <v>41980</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:30">
       <c r="A120" s="1">
         <v>14</v>
       </c>
@@ -11033,28 +12114,28 @@
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E120" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H120" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I120" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J120" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K120">
         <v>21</v>
@@ -11105,10 +12186,19 @@
         <v>2014</v>
       </c>
       <c r="AA120" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB120">
+        <v>12</v>
+      </c>
+      <c r="AC120">
+        <v>14</v>
+      </c>
+      <c r="AD120" s="2">
+        <v>41987</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:30">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -11116,28 +12206,28 @@
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E121" t="s">
-        <v>129</v>
-      </c>
-      <c r="F121" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H121" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I121" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J121" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K121">
         <v>32</v>
@@ -11188,10 +12278,19 @@
         <v>2015</v>
       </c>
       <c r="AA121" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB121">
+        <v>9</v>
+      </c>
+      <c r="AC121">
+        <v>20</v>
+      </c>
+      <c r="AD121" s="2">
+        <v>42267</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:30">
       <c r="A122" s="1">
         <v>3</v>
       </c>
@@ -11199,28 +12298,28 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>129</v>
-      </c>
-      <c r="F122" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H122" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I122" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J122" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K122">
         <v>10</v>
@@ -11271,10 +12370,19 @@
         <v>2015</v>
       </c>
       <c r="AA122" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB122">
+        <v>10</v>
+      </c>
+      <c r="AC122">
+        <v>4</v>
+      </c>
+      <c r="AD122" s="2">
+        <v>42281</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:30">
       <c r="A123" s="1">
         <v>4</v>
       </c>
@@ -11282,28 +12390,28 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E123" t="s">
-        <v>133</v>
-      </c>
-      <c r="F123" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H123" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I123" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K123">
         <v>14</v>
@@ -11354,10 +12462,19 @@
         <v>2015</v>
       </c>
       <c r="AA123" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB123">
+        <v>10</v>
+      </c>
+      <c r="AC123">
+        <v>11</v>
+      </c>
+      <c r="AD123" s="2">
+        <v>42288</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:30">
       <c r="A124" s="1">
         <v>6</v>
       </c>
@@ -11365,28 +12482,28 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>145</v>
-      </c>
-      <c r="F124" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H124" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I124" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J124" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K124">
         <v>31</v>
@@ -11437,10 +12554,19 @@
         <v>2015</v>
       </c>
       <c r="AA124" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB124">
+        <v>10</v>
+      </c>
+      <c r="AC124">
+        <v>25</v>
+      </c>
+      <c r="AD124" s="2">
+        <v>42302</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:30">
       <c r="A125" s="1">
         <v>10</v>
       </c>
@@ -11448,28 +12574,28 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>146</v>
-      </c>
-      <c r="F125" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H125" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I125" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J125" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K125">
         <v>13</v>
@@ -11520,10 +12646,19 @@
         <v>2015</v>
       </c>
       <c r="AA125" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB125">
+        <v>11</v>
+      </c>
+      <c r="AC125">
+        <v>23</v>
+      </c>
+      <c r="AD125" s="2">
+        <v>42331</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:30">
       <c r="A126" s="1">
         <v>13</v>
       </c>
@@ -11531,28 +12666,28 @@
         <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E126" t="s">
-        <v>132</v>
-      </c>
-      <c r="F126" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I126" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J126" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K126">
         <v>20</v>
@@ -11603,10 +12738,19 @@
         <v>2015</v>
       </c>
       <c r="AA126" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB126">
+        <v>12</v>
+      </c>
+      <c r="AC126">
+        <v>13</v>
+      </c>
+      <c r="AD126" s="2">
+        <v>42351</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:30">
       <c r="A127" s="1">
         <v>15</v>
       </c>
@@ -11614,28 +12758,28 @@
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E127" t="s">
-        <v>129</v>
-      </c>
-      <c r="F127" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I127" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J127" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K127">
         <v>16</v>
@@ -11686,10 +12830,19 @@
         <v>2015</v>
       </c>
       <c r="AA127" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB127">
+        <v>12</v>
+      </c>
+      <c r="AC127">
+        <v>27</v>
+      </c>
+      <c r="AD127" s="2">
+        <v>42365</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:30">
       <c r="A128" s="1">
         <v>16</v>
       </c>
@@ -11697,28 +12850,28 @@
         <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E128" t="s">
-        <v>129</v>
-      </c>
-      <c r="F128" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I128" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J128" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K128">
         <v>22</v>
@@ -11769,10 +12922,19 @@
         <v>2015</v>
       </c>
       <c r="AA128" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB128">
+        <v>1</v>
+      </c>
+      <c r="AC128">
+        <v>3</v>
+      </c>
+      <c r="AD128" s="2">
+        <v>42007</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:30">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -11780,28 +12942,28 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E129" t="s">
-        <v>147</v>
-      </c>
-      <c r="F129" t="s">
         <v>150</v>
       </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
       <c r="G129" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H129" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I129" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J129" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K129">
         <v>31</v>
@@ -11852,10 +13014,19 @@
         <v>2016</v>
       </c>
       <c r="AA129" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB129">
+        <v>9</v>
+      </c>
+      <c r="AC129">
+        <v>15</v>
+      </c>
+      <c r="AD129" s="2">
+        <v>42628</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:30">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -11863,28 +13034,28 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E130" t="s">
-        <v>129</v>
-      </c>
-      <c r="F130" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H130" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I130" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J130" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K130">
         <v>33</v>
@@ -11935,10 +13106,19 @@
         <v>2016</v>
       </c>
       <c r="AA130" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB130">
+        <v>9</v>
+      </c>
+      <c r="AC130">
+        <v>25</v>
+      </c>
+      <c r="AD130" s="2">
+        <v>42638</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:30">
       <c r="A131" s="1">
         <v>5</v>
       </c>
@@ -11946,28 +13126,28 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>129</v>
-      </c>
-      <c r="F131" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H131" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I131" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J131" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K131">
         <v>45</v>
@@ -12018,10 +13198,19 @@
         <v>2016</v>
       </c>
       <c r="AA131" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB131">
+        <v>10</v>
+      </c>
+      <c r="AC131">
+        <v>16</v>
+      </c>
+      <c r="AD131" s="2">
+        <v>42659</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:30">
       <c r="A132" s="1">
         <v>10</v>
       </c>
@@ -12029,28 +13218,28 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E132" t="s">
-        <v>142</v>
-      </c>
-      <c r="F132" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H132" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I132" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J132" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K132">
         <v>16</v>
@@ -12101,10 +13290,19 @@
         <v>2016</v>
       </c>
       <c r="AA132" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB132">
+        <v>11</v>
+      </c>
+      <c r="AC132">
+        <v>20</v>
+      </c>
+      <c r="AD132" s="2">
+        <v>42694</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:30">
       <c r="A133" s="1">
         <v>13</v>
       </c>
@@ -12112,28 +13310,28 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E133" t="s">
-        <v>142</v>
-      </c>
-      <c r="F133" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I133" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J133" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K133">
         <v>20</v>
@@ -12184,10 +13382,19 @@
         <v>2016</v>
       </c>
       <c r="AA133" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB133">
+        <v>12</v>
+      </c>
+      <c r="AC133">
+        <v>11</v>
+      </c>
+      <c r="AD133" s="2">
+        <v>42715</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:30">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -12195,28 +13402,28 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E134" t="s">
-        <v>142</v>
-      </c>
-      <c r="F134" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I134" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J134" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K134">
         <v>21</v>
@@ -12267,10 +13474,19 @@
         <v>2017</v>
       </c>
       <c r="AA134" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB134">
+        <v>9</v>
+      </c>
+      <c r="AC134">
+        <v>10</v>
+      </c>
+      <c r="AD134" s="2">
+        <v>42988</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:30">
       <c r="A135" s="1">
         <v>4</v>
       </c>
@@ -12278,28 +13494,28 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E135" t="s">
-        <v>142</v>
-      </c>
-      <c r="F135" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H135" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I135" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J135" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K135">
         <v>16</v>
@@ -12350,10 +13566,19 @@
         <v>2017</v>
       </c>
       <c r="AA135" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB135">
+        <v>10</v>
+      </c>
+      <c r="AC135">
+        <v>8</v>
+      </c>
+      <c r="AD135" s="2">
+        <v>43016</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:30">
       <c r="A136" s="1">
         <v>6</v>
       </c>
@@ -12361,28 +13586,28 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E136" t="s">
-        <v>142</v>
-      </c>
-      <c r="F136" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H136" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I136" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J136" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K136">
         <v>30</v>
@@ -12433,10 +13658,19 @@
         <v>2017</v>
       </c>
       <c r="AA136" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB136">
+        <v>10</v>
+      </c>
+      <c r="AC136">
+        <v>22</v>
+      </c>
+      <c r="AD136" s="2">
+        <v>43030</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:30">
       <c r="A137" s="1">
         <v>9</v>
       </c>
@@ -12444,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E137" t="s">
-        <v>142</v>
-      </c>
-      <c r="F137" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H137" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I137" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J137" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K137">
         <v>10</v>
@@ -12516,10 +13750,19 @@
         <v>2017</v>
       </c>
       <c r="AA137" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB137">
+        <v>11</v>
+      </c>
+      <c r="AC137">
+        <v>12</v>
+      </c>
+      <c r="AD137" s="2">
+        <v>43051</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:30">
       <c r="A138" s="1">
         <v>12</v>
       </c>
@@ -12527,28 +13770,28 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E138" t="s">
-        <v>142</v>
-      </c>
-      <c r="F138" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I138" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J138" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K138">
         <v>3</v>
@@ -12599,10 +13842,19 @@
         <v>2017</v>
       </c>
       <c r="AA138" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB138">
+        <v>12</v>
+      </c>
+      <c r="AC138">
+        <v>3</v>
+      </c>
+      <c r="AD138" s="2">
+        <v>43072</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:30">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -12610,28 +13862,28 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E139" t="s">
-        <v>142</v>
-      </c>
-      <c r="F139" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I139" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J139" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K139">
         <v>3</v>
@@ -12682,10 +13934,19 @@
         <v>2018</v>
       </c>
       <c r="AA139" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB139">
+        <v>9</v>
+      </c>
+      <c r="AC139">
+        <v>9</v>
+      </c>
+      <c r="AD139" s="2">
+        <v>43352</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:30">
       <c r="A140" s="1">
         <v>3</v>
       </c>
@@ -12693,28 +13954,28 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E140" t="s">
-        <v>142</v>
-      </c>
-      <c r="F140" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H140" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I140" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J140" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -12765,10 +14026,19 @@
         <v>2018</v>
       </c>
       <c r="AA140" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB140">
+        <v>9</v>
+      </c>
+      <c r="AC140">
+        <v>30</v>
+      </c>
+      <c r="AD140" s="2">
+        <v>43373</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:30">
       <c r="A141" s="1">
         <v>4</v>
       </c>
@@ -12776,28 +14046,28 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E141" t="s">
-        <v>142</v>
-      </c>
-      <c r="F141" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I141" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J141" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K141">
         <v>13</v>
@@ -12848,10 +14118,19 @@
         <v>2018</v>
       </c>
       <c r="AA141" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB141">
+        <v>10</v>
+      </c>
+      <c r="AC141">
+        <v>7</v>
+      </c>
+      <c r="AD141" s="2">
+        <v>43380</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:30">
       <c r="A142" s="1">
         <v>5</v>
       </c>
@@ -12859,28 +14138,28 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E142" t="s">
-        <v>142</v>
-      </c>
-      <c r="F142" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H142" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I142" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J142" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K142">
         <v>13</v>
@@ -12931,10 +14210,19 @@
         <v>2018</v>
       </c>
       <c r="AA142" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB142">
+        <v>10</v>
+      </c>
+      <c r="AC142">
+        <v>14</v>
+      </c>
+      <c r="AD142" s="2">
+        <v>43387</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:30">
       <c r="A143" s="1">
         <v>8</v>
       </c>
@@ -12942,28 +14230,28 @@
         <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E143" t="s">
-        <v>142</v>
-      </c>
-      <c r="F143" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H143" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I143" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J143" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K143">
         <v>9</v>
@@ -13014,10 +14302,19 @@
         <v>2018</v>
       </c>
       <c r="AA143" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB143">
+        <v>11</v>
+      </c>
+      <c r="AC143">
+        <v>4</v>
+      </c>
+      <c r="AD143" s="2">
+        <v>43408</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:30">
       <c r="A144" s="1">
         <v>12</v>
       </c>
@@ -13025,28 +14322,28 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E144" t="s">
-        <v>142</v>
-      </c>
-      <c r="F144" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H144" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I144" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J144" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K144">
         <v>17</v>
@@ -13097,10 +14394,19 @@
         <v>2018</v>
       </c>
       <c r="AA144" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB144">
+        <v>12</v>
+      </c>
+      <c r="AC144">
+        <v>2</v>
+      </c>
+      <c r="AD144" s="2">
+        <v>43436</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:30">
       <c r="A145" s="1">
         <v>13</v>
       </c>
@@ -13108,28 +14414,28 @@
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E145" t="s">
-        <v>142</v>
-      </c>
-      <c r="F145" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I145" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J145" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K145">
         <v>23</v>
@@ -13180,10 +14486,19 @@
         <v>2018</v>
       </c>
       <c r="AA145" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB145">
+        <v>12</v>
+      </c>
+      <c r="AC145">
+        <v>9</v>
+      </c>
+      <c r="AD145" s="2">
+        <v>43443</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:30">
       <c r="A146" s="1">
         <v>15</v>
       </c>
@@ -13191,28 +14506,28 @@
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E146" t="s">
-        <v>142</v>
-      </c>
-      <c r="F146" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I146" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J146" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K146">
         <v>12</v>
@@ -13263,10 +14578,19 @@
         <v>2018</v>
       </c>
       <c r="AA146" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB146">
+        <v>12</v>
+      </c>
+      <c r="AC146">
+        <v>23</v>
+      </c>
+      <c r="AD146" s="2">
+        <v>43457</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:30">
       <c r="A147" s="1">
         <v>16</v>
       </c>
@@ -13274,28 +14598,28 @@
         <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E147" t="s">
-        <v>142</v>
-      </c>
-      <c r="F147" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H147" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I147" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J147" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K147">
         <v>42</v>
@@ -13346,10 +14670,19 @@
         <v>2018</v>
       </c>
       <c r="AA147" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB147">
+        <v>12</v>
+      </c>
+      <c r="AC147">
+        <v>30</v>
+      </c>
+      <c r="AD147" s="2">
+        <v>43464</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:30">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -13357,28 +14690,28 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E148" t="s">
-        <v>142</v>
-      </c>
-      <c r="F148" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H148" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I148" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J148" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K148">
         <v>17</v>
@@ -13429,10 +14762,19 @@
         <v>2019</v>
       </c>
       <c r="AA148" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB148">
+        <v>9</v>
+      </c>
+      <c r="AC148">
+        <v>8</v>
+      </c>
+      <c r="AD148" s="2">
+        <v>43716</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:30">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -13440,28 +14782,28 @@
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E149" t="s">
-        <v>142</v>
-      </c>
-      <c r="F149" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I149" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J149" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K149">
         <v>21</v>
@@ -13512,10 +14854,19 @@
         <v>2019</v>
       </c>
       <c r="AA149" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB149">
+        <v>9</v>
+      </c>
+      <c r="AC149">
+        <v>22</v>
+      </c>
+      <c r="AD149" s="2">
+        <v>43730</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:30">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -13523,28 +14874,28 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E150" t="s">
-        <v>142</v>
-      </c>
-      <c r="F150" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H150" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I150" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J150" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K150">
         <v>10</v>
@@ -13595,10 +14946,19 @@
         <v>2019</v>
       </c>
       <c r="AA150" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB150">
+        <v>9</v>
+      </c>
+      <c r="AC150">
+        <v>29</v>
+      </c>
+      <c r="AD150" s="2">
+        <v>43737</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:30">
       <c r="A151" s="1">
         <v>7</v>
       </c>
@@ -13606,28 +14966,28 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E151" t="s">
-        <v>142</v>
-      </c>
-      <c r="F151" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H151" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I151" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J151" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K151">
         <v>13</v>
@@ -13678,10 +15038,19 @@
         <v>2019</v>
       </c>
       <c r="AA151" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB151">
+        <v>10</v>
+      </c>
+      <c r="AC151">
+        <v>27</v>
+      </c>
+      <c r="AD151" s="2">
+        <v>43765</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:30">
       <c r="A152" s="1">
         <v>11</v>
       </c>
@@ -13689,28 +15058,28 @@
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E152" t="s">
-        <v>142</v>
-      </c>
-      <c r="F152" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H152" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I152" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J152" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K152">
         <v>20</v>
@@ -13761,10 +15130,19 @@
         <v>2019</v>
       </c>
       <c r="AA152" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB152">
+        <v>11</v>
+      </c>
+      <c r="AC152">
+        <v>24</v>
+      </c>
+      <c r="AD152" s="2">
+        <v>43793</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:30">
       <c r="A153" s="1">
         <v>13</v>
       </c>
@@ -13772,28 +15150,28 @@
         <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E153" t="s">
-        <v>142</v>
-      </c>
-      <c r="F153" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H153" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I153" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J153" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K153">
         <v>17</v>
@@ -13844,10 +15222,19 @@
         <v>2019</v>
       </c>
       <c r="AA153" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB153">
+        <v>12</v>
+      </c>
+      <c r="AC153">
+        <v>8</v>
+      </c>
+      <c r="AD153" s="2">
+        <v>43807</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:30">
       <c r="A154" s="1">
         <v>14</v>
       </c>
@@ -13855,28 +15242,28 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E154" t="s">
-        <v>148</v>
-      </c>
-      <c r="F154" t="s">
         <v>151</v>
       </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
       <c r="G154" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H154" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I154" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J154" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K154">
         <v>17</v>
@@ -13927,10 +15314,19 @@
         <v>2019</v>
       </c>
       <c r="AA154" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB154">
+        <v>12</v>
+      </c>
+      <c r="AC154">
+        <v>15</v>
+      </c>
+      <c r="AD154" s="2">
+        <v>43814</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:30">
       <c r="A155" s="1">
         <v>16</v>
       </c>
@@ -13938,28 +15334,28 @@
         <v>17</v>
       </c>
       <c r="C155" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E155" t="s">
-        <v>142</v>
-      </c>
-      <c r="F155" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H155" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I155" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J155" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K155">
         <v>6</v>
@@ -14010,10 +15406,19 @@
         <v>2019</v>
       </c>
       <c r="AA155" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB155">
+        <v>12</v>
+      </c>
+      <c r="AC155">
+        <v>29</v>
+      </c>
+      <c r="AD155" s="2">
+        <v>43828</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:30">
       <c r="A156" s="1">
         <v>18</v>
       </c>
@@ -14021,28 +15426,28 @@
         <v>18</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E156" t="s">
-        <v>149</v>
-      </c>
-      <c r="F156" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
       </c>
       <c r="G156">
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I156" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J156" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K156">
         <v>19</v>
@@ -14093,7 +15498,16 @@
         <v>2019</v>
       </c>
       <c r="AA156" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="AB156">
+        <v>1</v>
+      </c>
+      <c r="AC156">
+        <v>4</v>
+      </c>
+      <c r="AD156" s="2">
+        <v>43469</v>
       </c>
     </row>
   </sheetData>
